--- a/data/WHO_Tumors/WHO_3rd_edition.xlsx
+++ b/data/WHO_Tumors/WHO_3rd_edition.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lahiria/Desktop/MTP_Paper/CT-Embedding-Paper/data/WHO_Tumors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81CAE3C5-D0BD-9044-B4FD-AD078830490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F3FB10-9CE9-4847-B4CD-4644FF8CB790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{8669E894-012C-5840-A3F7-AA04F45993E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="2" xr2:uid="{8669E894-012C-5840-A3F7-AA04F45993E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Endocrine" sheetId="1" r:id="rId1"/>
     <sheet name="Breast " sheetId="2" r:id="rId2"/>
+    <sheet name="skin" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="447">
   <si>
     <t>- Growth hormone producing adenoma</t>
   </si>
@@ -817,13 +818,574 @@
   </si>
   <si>
     <t>In situ</t>
+  </si>
+  <si>
+    <t>1. Keratinocytic Tumours</t>
+  </si>
+  <si>
+    <t>Basal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Superficial basal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Nodular basal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Micronodular basal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Infiltrating basal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Fibroepithelial basal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Basal cell carcinoma with adnexal differentiation</t>
+  </si>
+  <si>
+    <t>Basosquamous carcinoma</t>
+  </si>
+  <si>
+    <t>Keratotic basal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Other variants</t>
+  </si>
+  <si>
+    <t>Acantholytic squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>Spindle-cell squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>Verrucous squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>Pseudovascular squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>Bowen disease</t>
+  </si>
+  <si>
+    <t>Bowenoid papulosis</t>
+  </si>
+  <si>
+    <t>Actinic keratosis</t>
+  </si>
+  <si>
+    <t>Arsenical keratosis</t>
+  </si>
+  <si>
+    <t>PUVA keratosis</t>
+  </si>
+  <si>
+    <t>Verrucas</t>
+  </si>
+  <si>
+    <t>Verruca vulgaris</t>
+  </si>
+  <si>
+    <t>Verruca plantaris</t>
+  </si>
+  <si>
+    <t>Verruca plana</t>
+  </si>
+  <si>
+    <t>Acanthomas</t>
+  </si>
+  <si>
+    <t>Epidermolytic acanthoma</t>
+  </si>
+  <si>
+    <t>Warty dyskeratoma</t>
+  </si>
+  <si>
+    <t>Acantholytic acanthoma</t>
+  </si>
+  <si>
+    <t>Lentigo simplex</t>
+  </si>
+  <si>
+    <t>Seborrhoeic keratosis</t>
+  </si>
+  <si>
+    <t>Melanoacanthoma</t>
+  </si>
+  <si>
+    <t>Clear cell acanthoma</t>
+  </si>
+  <si>
+    <t>Large cell acanthoma</t>
+  </si>
+  <si>
+    <t>Keratoacanthoma</t>
+  </si>
+  <si>
+    <t>Lichen planus-like keratosis</t>
+  </si>
+  <si>
+    <t>2. Melanocytic Tumours</t>
+  </si>
+  <si>
+    <t>Malignant melanoma</t>
+  </si>
+  <si>
+    <t>Superficial spreading melanoma</t>
+  </si>
+  <si>
+    <t>Nodular melanoma</t>
+  </si>
+  <si>
+    <t>Lentigo maligna</t>
+  </si>
+  <si>
+    <t>Acral-lentiginous melanoma</t>
+  </si>
+  <si>
+    <t>Desmoplastic melanoma and desmoplastic neurotropic melanoma</t>
+  </si>
+  <si>
+    <t>Melanoma arising from blue naevus</t>
+  </si>
+  <si>
+    <t>Melanoma arising in giant congenital naevus</t>
+  </si>
+  <si>
+    <t>Childhood melanoma</t>
+  </si>
+  <si>
+    <t>Naevoid melanoma</t>
+  </si>
+  <si>
+    <t>Persistent melanoma and local metastasis of melanoma</t>
+  </si>
+  <si>
+    <t>Congenital melanocytic naevus</t>
+  </si>
+  <si>
+    <t>Blue naevus</t>
+  </si>
+  <si>
+    <t>Common blue naevus</t>
+  </si>
+  <si>
+    <t>Mongolian spot</t>
+  </si>
+  <si>
+    <t>Naevus of Ito and naevus of Ota</t>
+  </si>
+  <si>
+    <t>Cellular blue naevus</t>
+  </si>
+  <si>
+    <t>Deep penetrating naevus</t>
+  </si>
+  <si>
+    <t>Combined naevus</t>
+  </si>
+  <si>
+    <t>Melanotic macules</t>
+  </si>
+  <si>
+    <t>Simple lentigo – lentiginous melanocytic naevus</t>
+  </si>
+  <si>
+    <t>Dysplastic naevus</t>
+  </si>
+  <si>
+    <t>Site specific and Meyerson naevus</t>
+  </si>
+  <si>
+    <t>Acral naevus</t>
+  </si>
+  <si>
+    <t>Genital naevus</t>
+  </si>
+  <si>
+    <t>Meyerson naevus</t>
+  </si>
+  <si>
+    <t>Persistent (recurrent) melanocytic naevus</t>
+  </si>
+  <si>
+    <t>Spitz naevus</t>
+  </si>
+  <si>
+    <t>Pigmented spindle cell naevus (Reed)</t>
+  </si>
+  <si>
+    <t>Halo naevus</t>
+  </si>
+  <si>
+    <t>3. Appendageal Tumours</t>
+  </si>
+  <si>
+    <t>Malignant tumours with apocrine and eccrine differentiation</t>
+  </si>
+  <si>
+    <t>Microcystic adnexal carcinoma</t>
+  </si>
+  <si>
+    <t>Malignant mixed tumour</t>
+  </si>
+  <si>
+    <t>Porocarcinoma</t>
+  </si>
+  <si>
+    <t>Spiradenocarcinoma</t>
+  </si>
+  <si>
+    <t>Hidradenocarcinoma</t>
+  </si>
+  <si>
+    <t>Digital papillary carcinoma</t>
+  </si>
+  <si>
+    <t>Paget disease and extramammary Paget disease</t>
+  </si>
+  <si>
+    <t>Benign tumours with apocrine and eccrine differentiation</t>
+  </si>
+  <si>
+    <t>Hidrocytoma</t>
+  </si>
+  <si>
+    <t>Syringoma</t>
+  </si>
+  <si>
+    <t>Poroma</t>
+  </si>
+  <si>
+    <t>Syringofibroadenoma</t>
+  </si>
+  <si>
+    <t>Hidradenoma</t>
+  </si>
+  <si>
+    <t>Spiradenoma</t>
+  </si>
+  <si>
+    <t>Cylindroma</t>
+  </si>
+  <si>
+    <t>Tubular and tubular papillary adenoma</t>
+  </si>
+  <si>
+    <t>Syringocystadenoma papilliferum</t>
+  </si>
+  <si>
+    <t>Hidradenoma papilliferum</t>
+  </si>
+  <si>
+    <t>4. Haematolymphoid Tumours</t>
+  </si>
+  <si>
+    <t>Mycosis fungoides (MF)</t>
+  </si>
+  <si>
+    <t>Pagetoid reticulosis</t>
+  </si>
+  <si>
+    <t>Syringotropic MF</t>
+  </si>
+  <si>
+    <t>Folliculotropic MF</t>
+  </si>
+  <si>
+    <t>Granulomatous MF</t>
+  </si>
+  <si>
+    <t>Sézary syndrome</t>
+  </si>
+  <si>
+    <t>Granulomatous slack skin</t>
+  </si>
+  <si>
+    <t>CD30+ T-cell lymphoproliferative disorders</t>
+  </si>
+  <si>
+    <t>Lymphomatoid papulosis (LyP)</t>
+  </si>
+  <si>
+    <t>Primary cutaneous anaplastic large-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Subcutaneous panniculitis-like T-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Primary cutaneous peripheral T-cell lymphoma, unspecified</t>
+  </si>
+  <si>
+    <t>Cutaneous γδ T-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Primary cutaneous aggressive epidermotropic CD8+ cytotoxic T-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Primary cutaneous small-medium CD4+ T-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Primary cutaneous PTL, unspecified</t>
+  </si>
+  <si>
+    <t>Cutaneous adult T-cell leukaemia / lymphoma</t>
+  </si>
+  <si>
+    <t>Extranodal NK/T-cell lymphoma, nasal-type</t>
+  </si>
+  <si>
+    <t>Hydroa vacciniforme-like cutaneous T-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Cutaneous involvement in primary extranodal T-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Systemic anaplastic large cell lymphoma (ALCL)</t>
+  </si>
+  <si>
+    <t>Angioimmunoblastic T-cell lymphoma (AITL)</t>
+  </si>
+  <si>
+    <t>Cutaneous marginal zone B-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Cutaneous follicle centre lymphoma</t>
+  </si>
+  <si>
+    <t>Cutaneous diffuse large B-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Diffuse large B-cell lymphoma, leg-type</t>
+  </si>
+  <si>
+    <t>Diffuse large B-cell lymphoma, other</t>
+  </si>
+  <si>
+    <t>T-cell / histiocyte-rich large B-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Plasmablastic lymphoma</t>
+  </si>
+  <si>
+    <t>Secondary skin involvement by diffuse large B-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Intravascular large B-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Lymphomatoid granulomatosis</t>
+  </si>
+  <si>
+    <t>Cutaneous involvement in primary extracutaneous B-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Mantle cell lymphoma</t>
+  </si>
+  <si>
+    <t>Chronic lymphocytic leukaemia / small lymphocytic lymphoma</t>
+  </si>
+  <si>
+    <t>Hodgkin lymphoma</t>
+  </si>
+  <si>
+    <t>Blastic NK-cell lymphoma</t>
+  </si>
+  <si>
+    <t>Precursor T-lymphoblastic leukaemia / lymphoma and precursor B-lymphoblastic leukaemia / lymphoma</t>
+  </si>
+  <si>
+    <t>Cutaneous involvement by myeloid leukaemia</t>
+  </si>
+  <si>
+    <t>Lymphoid infiltrates of the skin mimicking lymphoma</t>
+  </si>
+  <si>
+    <t>Parapsoriasis</t>
+  </si>
+  <si>
+    <t>Small plaque parapsoriasis</t>
+  </si>
+  <si>
+    <t>Parapsoriasis – Large patch type, with or without poikiloderma</t>
+  </si>
+  <si>
+    <t>Langerhans cell histiocytosis</t>
+  </si>
+  <si>
+    <t>Indeterminate cell histiocytosis</t>
+  </si>
+  <si>
+    <t>Sinus histiocytosis with massive lymphadenopathy (Rosai-Dorfman)</t>
+  </si>
+  <si>
+    <t>Juvenile xanthogranuloma</t>
+  </si>
+  <si>
+    <t>Reticulohistiocytosis</t>
+  </si>
+  <si>
+    <t>Mastocytosis</t>
+  </si>
+  <si>
+    <t>5. Soft Tissue Tumours</t>
+  </si>
+  <si>
+    <t>Vascular tumours</t>
+  </si>
+  <si>
+    <t>Haemangioma of infancy</t>
+  </si>
+  <si>
+    <t>Cherry haemangioma</t>
+  </si>
+  <si>
+    <t>Sinusoidal haemangioma</t>
+  </si>
+  <si>
+    <t>Hobnail haemangioma</t>
+  </si>
+  <si>
+    <t>Glomeruloid haemangioma</t>
+  </si>
+  <si>
+    <t>Microvenular haemangioma</t>
+  </si>
+  <si>
+    <t>Angiomyolipid hyperplasia with eosinophilia</t>
+  </si>
+  <si>
+    <t>Spindle cell haemangioma</t>
+  </si>
+  <si>
+    <t>Tufted angioma</t>
+  </si>
+  <si>
+    <t>Bacillary angiomatosis</t>
+  </si>
+  <si>
+    <t>Reactive angioendotheliomatosis</t>
+  </si>
+  <si>
+    <t>Verrucous haemangioma</t>
+  </si>
+  <si>
+    <t>Pyogenic granuloma</t>
+  </si>
+  <si>
+    <t>Cavernous haemangioma</t>
+  </si>
+  <si>
+    <t>Angiokeratomas</t>
+  </si>
+  <si>
+    <t>Arteriovenous haemangioma</t>
+  </si>
+  <si>
+    <t>Cutaneous angiosarcoma</t>
+  </si>
+  <si>
+    <t>Lymphangio tumours</t>
+  </si>
+  <si>
+    <t>Lymphangioma circumscriptum</t>
+  </si>
+  <si>
+    <t>Progressive lymphangioma</t>
+  </si>
+  <si>
+    <t>Smooth and skeletal muscle tumours</t>
+  </si>
+  <si>
+    <t>Smooth muscle hamartoma</t>
+  </si>
+  <si>
+    <t>Pilar leiomyoma</t>
+  </si>
+  <si>
+    <t>Cutaneous leiomyosarcoma</t>
+  </si>
+  <si>
+    <t>Rhabdomyomatous mesenchymal hamartoma</t>
+  </si>
+  <si>
+    <t>Fibrous, fibrohistiocytic and histiocytic tumours</t>
+  </si>
+  <si>
+    <t>Keloid scar</t>
+  </si>
+  <si>
+    <t>Hypertrophic scar</t>
+  </si>
+  <si>
+    <t>Dermatofibroma</t>
+  </si>
+  <si>
+    <t>Infantile myofibromatosis</t>
+  </si>
+  <si>
+    <t>Sclerotic fibroma</t>
+  </si>
+  <si>
+    <t>Digital mucous cyst</t>
+  </si>
+  <si>
+    <t>Digital fibrokeratoma</t>
+  </si>
+  <si>
+    <t>Pleomorphic fibroma</t>
+  </si>
+  <si>
+    <t>Giant cell fibroblastoma</t>
+  </si>
+  <si>
+    <t>Dermatofibrosarcoma protuberans</t>
+  </si>
+  <si>
+    <t>Dermatofibroma (fibrous histiocytoma)</t>
+  </si>
+  <si>
+    <t>6. Neural Tumours</t>
+  </si>
+  <si>
+    <t>Palisaded, encapsulated neuroma and traumatic neuroma</t>
+  </si>
+  <si>
+    <t>Palisaded encapsulated neuroma</t>
+  </si>
+  <si>
+    <t>Traumatic neuroma</t>
+  </si>
+  <si>
+    <t>Primary malignant peripheral primitive neuroectodermal tumour (PNET) / Extraskeletal Ewing sarcoma (ES)</t>
+  </si>
+  <si>
+    <t>Nerve sheath myxoma / neurothekeoma</t>
+  </si>
+  <si>
+    <t>Merkel cell carcinoma</t>
+  </si>
+  <si>
+    <t>7. Inherited Tumour Syndromes</t>
+  </si>
+  <si>
+    <t>Familial cutaneous melanoma</t>
+  </si>
+  <si>
+    <t>Xeroderma pigmentosum</t>
+  </si>
+  <si>
+    <t>Naevoid basal cell carcinoma (Gorlin) syndrome</t>
+  </si>
+  <si>
+    <t>Carney complex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -835,6 +1397,13 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="15"/>
@@ -869,12 +1438,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1607,1177 +2177,2187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177D3A4F-E25B-8B4C-BF84-5E68A9D7A4B3}">
   <dimension ref="A1:A246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
+      <c r="A62" s="4"/>
     </row>
     <row r="63" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
     </row>
     <row r="68" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
     </row>
     <row r="70" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
+      <c r="A82" s="4"/>
     </row>
     <row r="83" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
+      <c r="A84" s="4"/>
     </row>
     <row r="85" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4"/>
     </row>
     <row r="92" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
+      <c r="A93" s="4"/>
     </row>
     <row r="94" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
+      <c r="A101" s="4"/>
     </row>
     <row r="102" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
+      <c r="A103" s="4"/>
     </row>
     <row r="104" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
+      <c r="A110" s="4"/>
     </row>
     <row r="111" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
+      <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
+      <c r="A122" s="4"/>
     </row>
     <row r="123" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="5" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="5" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="3"/>
+      <c r="A187" s="4"/>
     </row>
     <row r="188" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="3"/>
+      <c r="A189" s="4"/>
     </row>
     <row r="190" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="3"/>
+      <c r="A194" s="4"/>
     </row>
     <row r="195" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="3"/>
+      <c r="A196" s="4"/>
     </row>
     <row r="197" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="5" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="3"/>
+      <c r="A215" s="4"/>
     </row>
     <row r="216" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="3"/>
+      <c r="A217" s="4"/>
     </row>
     <row r="218" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="3"/>
+      <c r="A225" s="4"/>
     </row>
     <row r="226" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="3"/>
+      <c r="A227" s="4"/>
     </row>
     <row r="228" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="3"/>
+      <c r="A231" s="4"/>
     </row>
     <row r="232" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
+      <c r="A233" s="4"/>
     </row>
     <row r="234" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="3"/>
+      <c r="A238" s="4"/>
     </row>
     <row r="239" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="3"/>
+      <c r="A240" s="4"/>
     </row>
     <row r="241" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="3"/>
+      <c r="A242" s="4"/>
     </row>
     <row r="243" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="5" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="5" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="5" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="5" t="s">
         <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0AC109-73DD-DE4E-928E-478F46053796}">
+  <dimension ref="A1:A209"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="K189" sqref="K189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
